--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE6009-9593-488E-B1B1-46C66AEB986D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA65D072-B06B-47E3-A797-2D14BB697A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1791,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA65D072-B06B-47E3-A797-2D14BB697A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C3FBB-844E-4653-A17B-7D10B50C0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="260">
   <si>
     <t>備註說明</t>
   </si>
@@ -1052,6 +1052,32 @@
     <t>0:1STEP TX
 1/2:2STEP TX
 1/2/3/4:3STEP TX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寬限區分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LA$LMSP.LMSGTP
+0:不寬限
+1:寬限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GraceFlag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-21 智偉增加
+From Linda
+智偉~
+賴桑說AS400的LA$LMSP.LMSGTP寬限區分要轉資料進來,需要在LoanBorMain加一個欄位,
+賴桑會調整程式維護欄位(撥款主檔寬限區分欄位為隱藏欄位,判斷是否案件核准時有寬限期)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1162,7 +1188,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1172,6 +1198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,7 +1314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1450,6 +1482,21 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1789,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1803,7 +1850,8 @@
     <col min="4" max="4" width="16.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="8" width="41.21875" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -1943,7 +1991,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <f t="shared" ref="A10:A81" si="0">A9+1</f>
+        <f t="shared" ref="A10:A82" si="0">A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -3093,7 +3141,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3115,7 +3163,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3137,7 +3185,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3157,7 +3205,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="26"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3177,7 +3225,7 @@
       <c r="F68" s="18"/>
       <c r="G68" s="26"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3197,7 +3245,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="26"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3219,7 +3267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3239,7 +3287,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="26"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3259,7 +3307,7 @@
       <c r="F72" s="18"/>
       <c r="G72" s="26"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3279,7 +3327,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="26"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3299,7 +3347,7 @@
       <c r="F74" s="18"/>
       <c r="G74" s="26"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3319,7 +3367,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="26"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -3339,7 +3387,7 @@
       <c r="F76" s="18"/>
       <c r="G76" s="26"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -3359,7 +3407,7 @@
       <c r="F77" s="12"/>
       <c r="G77" s="26"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -3379,41 +3427,46 @@
       <c r="F78" s="18"/>
       <c r="G78" s="26"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="40">
+    <row r="79" spans="1:8" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A79" s="56">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="E79" s="58">
+        <v>1</v>
+      </c>
+      <c r="F79" s="58"/>
+      <c r="G79" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="H79" s="60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="B80" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D80" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="15"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="40">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E80" s="12">
-        <v>6</v>
-      </c>
+      <c r="E80" s="12"/>
       <c r="F80" s="12"/>
       <c r="G80" s="15"/>
     </row>
@@ -3423,40 +3476,60 @@
         <v>73</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E81" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="E81" s="12">
+        <v>6</v>
+      </c>
       <c r="F81" s="12"/>
       <c r="G81" s="15"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <f t="shared" ref="A82" si="1">A81+1</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E82" s="12">
-        <v>6</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="15"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B84" s="6"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <f t="shared" ref="A83" si="1">A82+1</f>
+        <v>75</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E83" s="12">
+        <v>6</v>
+      </c>
+      <c r="F83" s="12"/>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B85" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C3FBB-844E-4653-A17B-7D10B50C0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="Status" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="259">
   <si>
     <t>備註說明</t>
   </si>
@@ -1055,16 +1054,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>寬限區分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LA$LMSP.LMSGTP
-0:不寬限
-1:寬限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GraceFlag</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1073,18 +1062,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2022-06-21 智偉增加
-From Linda
-智偉~
-賴桑說AS400的LA$LMSP.LMSGTP寬限區分要轉資料進來,需要在LoanBorMain加一個欄位,
-賴桑會調整程式維護欄位(撥款主檔寬限區分欄位為隱藏欄位,判斷是否案件核准時有寬限期)</t>
+    <t xml:space="preserve">
+0:不寬限(額度沒有寬限期)
+1:寬限(額度有寬限期)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度寬限區分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1465,6 +1456,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1482,21 +1488,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1591,23 +1582,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1643,23 +1617,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1835,11 +1792,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1855,10 +1812,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="54"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
         <v>128</v>
       </c>
@@ -1870,8 +1827,8 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
@@ -1883,10 +1840,10 @@
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
         <v>149</v>
       </c>
@@ -1898,10 +1855,10 @@
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="7" t="s">
         <v>127</v>
       </c>
@@ -1913,10 +1870,10 @@
       <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="6" t="s">
         <v>185</v>
       </c>
@@ -1926,10 +1883,10 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="6"/>
       <c r="D6" s="37"/>
       <c r="E6" s="33"/>
@@ -1937,10 +1894,10 @@
       <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="6"/>
       <c r="D7" s="37"/>
       <c r="E7" s="35"/>
@@ -3427,30 +3384,28 @@
       <c r="F78" s="18"/>
       <c r="G78" s="26"/>
     </row>
-    <row r="79" spans="1:8" ht="145.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A79" s="56">
+    <row r="79" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="50">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="E79" s="52">
+        <v>1</v>
+      </c>
+      <c r="F79" s="52"/>
+      <c r="G79" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="C79" s="57" t="s">
-        <v>255</v>
-      </c>
-      <c r="D79" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="E79" s="58">
-        <v>1</v>
-      </c>
-      <c r="F79" s="58"/>
-      <c r="G79" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="H79" s="60" t="s">
-        <v>259</v>
-      </c>
+      <c r="H79" s="54"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
@@ -3548,7 +3503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3671,7 +3626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7392"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -476,12 +476,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-1:整批匯款(預撥)  
-2:單筆匯款(即時)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ActFg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1069,6 +1063,13 @@
   </si>
   <si>
     <t>額度寬限區分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+1:整批匯款
+2:單筆匯款
+3.預撥</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1795,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1817,10 +1818,10 @@
       </c>
       <c r="B1" s="59"/>
       <c r="C1" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E1" s="29"/>
       <c r="F1" s="30"/>
@@ -1845,7 +1846,7 @@
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>63</v>
@@ -1860,7 +1861,7 @@
       </c>
       <c r="B4" s="56"/>
       <c r="C4" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>104</v>
@@ -1875,7 +1876,7 @@
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="29"/>
@@ -1935,7 +1936,7 @@
         <v>70</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>111</v>
@@ -1955,7 +1956,7 @@
         <v>71</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>110</v>
@@ -1975,7 +1976,7 @@
         <v>72</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>110</v>
@@ -1992,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>107</v>
@@ -2012,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>108</v>
@@ -2045,7 +2046,7 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2076,7 +2077,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>65</v>
@@ -2155,7 +2156,7 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2178,7 +2179,7 @@
       <c r="F20" s="12"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2197,7 +2198,7 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="25" t="s">
-        <v>123</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2248,7 +2249,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>25</v>
@@ -2270,13 +2271,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" s="12">
         <v>8</v>
@@ -2356,7 +2357,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="12">
         <v>8</v>
@@ -2370,10 +2371,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>197</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>198</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>114</v>
@@ -2383,7 +2384,7 @@
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
@@ -2405,7 +2406,7 @@
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2427,7 +2428,7 @@
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2476,7 +2477,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>27</v>
@@ -2496,10 +2497,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>110</v>
@@ -2516,10 +2517,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>171</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>110</v>
@@ -2536,13 +2537,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E38" s="12">
         <v>8</v>
@@ -2556,13 +2557,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E39" s="12">
         <v>8</v>
@@ -2576,20 +2577,20 @@
         <v>32</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" s="12">
         <v>8</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2598,20 +2599,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" s="12">
         <v>8</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2620,7 +2621,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>44</v>
@@ -2668,7 +2669,7 @@
         <v>29</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" s="12">
         <v>8</v>
@@ -2708,7 +2709,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E46" s="12">
         <v>8</v>
@@ -2728,7 +2729,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E47" s="12">
         <v>8</v>
@@ -2745,10 +2746,10 @@
         <v>93</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E48" s="18">
         <v>8</v>
@@ -2762,13 +2763,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E49" s="18">
         <v>8</v>
@@ -2804,10 +2805,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>110</v>
@@ -2826,10 +2827,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>110</v>
@@ -2861,7 +2862,7 @@
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2873,7 +2874,7 @@
         <v>122</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>114</v>
@@ -2883,7 +2884,7 @@
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -2892,7 +2893,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>37</v>
@@ -2905,7 +2906,7 @@
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2914,10 +2915,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D56" s="47" t="s">
         <v>115</v>
@@ -2927,7 +2928,7 @@
       </c>
       <c r="F56" s="47"/>
       <c r="G56" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2936,10 +2937,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D57" s="47" t="s">
         <v>110</v>
@@ -2961,7 +2962,7 @@
         <v>95</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>114</v>
@@ -2971,7 +2972,7 @@
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2980,7 +2981,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>41</v>
@@ -3000,7 +3001,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>19</v>
@@ -3013,7 +3014,7 @@
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -3022,10 +3023,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>116</v>
@@ -3042,10 +3043,10 @@
         <v>54</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>114</v>
@@ -3062,13 +3063,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E63" s="12">
         <v>8</v>
@@ -3082,10 +3083,10 @@
         <v>56</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>114</v>
@@ -3095,7 +3096,7 @@
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -3104,10 +3105,10 @@
         <v>57</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>110</v>
@@ -3117,7 +3118,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3126,13 +3127,13 @@
         <v>58</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
@@ -3168,7 +3169,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>47</v>
@@ -3188,13 +3189,13 @@
         <v>61</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E69" s="3">
         <v>8</v>
@@ -3233,7 +3234,7 @@
         <v>98</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>114</v>
@@ -3273,7 +3274,7 @@
         <v>100</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D73" s="22" t="s">
         <v>116</v>
@@ -3290,10 +3291,10 @@
         <v>66</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="D74" s="22" t="s">
         <v>114</v>
@@ -3336,7 +3337,7 @@
         <v>102</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" s="3">
         <v>8</v>
@@ -3356,7 +3357,7 @@
         <v>103</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E77" s="12">
         <v>8</v>
@@ -3370,10 +3371,10 @@
         <v>70</v>
       </c>
       <c r="B78" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C78" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>115</v>
@@ -3390,20 +3391,20 @@
         <v>71</v>
       </c>
       <c r="B79" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" s="52" t="s">
         <v>255</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="D79" s="52" t="s">
-        <v>256</v>
       </c>
       <c r="E79" s="52">
         <v>1</v>
       </c>
       <c r="F79" s="52"/>
       <c r="G79" s="53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H79" s="54"/>
     </row>
@@ -3475,7 +3476,7 @@
         <v>11</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E83" s="12">
         <v>6</v>
@@ -3532,90 +3533,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3643,13 +3644,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>219</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3657,10 +3658,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3668,10 +3669,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3679,10 +3680,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3690,10 +3691,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3701,10 +3702,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,10 +3713,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3723,10 +3724,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3734,10 +3735,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3745,10 +3746,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3756,10 +3757,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3767,10 +3768,10 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3778,10 +3779,10 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
@@ -3789,10 +3790,10 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -698,15 +698,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-1.按月繳息(按期繳息到期還本)
-2.到期取息(到期繳息還本)
-3.本息平均法(期金)
-4.本金平均法
-5.按月撥款收息(逆向貸款)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nextPayIntDateRange</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1070,6 +1061,14 @@
 1:整批匯款
 2:單筆匯款
 3.預撥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+1.按月繳息(按期繳息到期還本)
+2.到期取息(到期繳息還本)
+3.本息平均法(期金)
+4.本金平均法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1796,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1876,7 +1875,7 @@
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="29"/>
@@ -2046,7 +2045,7 @@
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2156,7 +2155,7 @@
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2198,7 +2197,7 @@
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2371,10 +2370,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>196</v>
-      </c>
-      <c r="C30" s="42" t="s">
-        <v>197</v>
       </c>
       <c r="D30" s="40" t="s">
         <v>114</v>
@@ -2384,10 +2383,10 @@
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="43" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2406,7 +2405,7 @@
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="15" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2428,7 +2427,7 @@
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2590,7 +2589,7 @@
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2612,7 +2611,7 @@
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2805,10 +2804,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>110</v>
@@ -2862,7 +2861,7 @@
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2874,7 +2873,7 @@
         <v>122</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>114</v>
@@ -2884,7 +2883,7 @@
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -2893,7 +2892,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>37</v>
@@ -2906,7 +2905,7 @@
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2915,10 +2914,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D56" s="47" t="s">
         <v>115</v>
@@ -2928,7 +2927,7 @@
       </c>
       <c r="F56" s="47"/>
       <c r="G56" s="48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2937,10 +2936,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D57" s="47" t="s">
         <v>110</v>
@@ -2962,7 +2961,7 @@
         <v>95</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>114</v>
@@ -2972,7 +2971,7 @@
       </c>
       <c r="F58" s="12"/>
       <c r="G58" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3014,7 +3013,7 @@
       </c>
       <c r="F60" s="12"/>
       <c r="G60" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -3096,7 +3095,7 @@
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -3108,7 +3107,7 @@
         <v>123</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>110</v>
@@ -3118,7 +3117,7 @@
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3234,7 +3233,7 @@
         <v>98</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>114</v>
@@ -3274,7 +3273,7 @@
         <v>100</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D73" s="22" t="s">
         <v>116</v>
@@ -3371,10 +3370,10 @@
         <v>70</v>
       </c>
       <c r="B78" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>195</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>115</v>
@@ -3391,20 +3390,20 @@
         <v>71</v>
       </c>
       <c r="B79" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" s="52" t="s">
         <v>254</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="D79" s="52" t="s">
-        <v>255</v>
       </c>
       <c r="E79" s="52">
         <v>1</v>
       </c>
       <c r="F79" s="52"/>
       <c r="G79" s="53" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H79" s="54"/>
     </row>
@@ -3536,7 +3535,7 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>174</v>
@@ -3558,7 +3557,7 @@
         <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>149</v>
@@ -3566,21 +3565,21 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>175</v>
@@ -3588,10 +3587,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>168</v>
@@ -3599,24 +3598,24 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3644,13 +3643,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="C1" s="39" t="s">
         <v>218</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3658,10 +3657,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3669,10 +3668,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3680,10 +3679,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3691,10 +3690,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3702,10 +3701,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3713,10 +3712,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3724,10 +3723,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3735,10 +3734,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3746,10 +3745,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3757,10 +3756,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3768,10 +3767,10 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3779,10 +3778,10 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
@@ -3790,10 +3789,10 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,31 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFBDA0-DBE9-41CD-AC57-42C5D726D4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="Status" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1075,7 +1067,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1305,11 +1297,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1318,9 +1310,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,22 +1346,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1393,28 +1373,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1423,23 +1400,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1582,6 +1547,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1617,6 +1599,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1792,11 +1791,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1804,126 +1803,126 @@
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.21875" style="3" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.21875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="4"/>
+    <col min="8" max="8" width="41.21875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1931,120 +1930,120 @@
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>7</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" ref="A10:A82" si="0">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>3</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="24"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>3</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="11">
         <v>4</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="11">
         <v>3</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="24"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7" ht="210.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>2</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="11"/>
+      <c r="G14" s="14" t="s">
         <v>243</v>
       </c>
     </row>
@@ -2053,44 +2052,44 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>6</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>4</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>6</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>4</v>
       </c>
-      <c r="G16" s="26"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -2100,7 +2099,7 @@
       <c r="B17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2109,52 +2108,52 @@
       <c r="E17" s="3">
         <v>6</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>4</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>6</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>4</v>
       </c>
-      <c r="G18" s="26"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>1</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="25" t="s">
+      <c r="F19" s="11"/>
+      <c r="G19" s="21" t="s">
         <v>244</v>
       </c>
     </row>
@@ -2163,40 +2162,40 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>2</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>1</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="25" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="21" t="s">
         <v>257</v>
       </c>
     </row>
@@ -2205,1286 +2204,1286 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>3</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="26"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>16</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>2</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>16</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>2</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>8</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="26"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>2</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>2</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="15"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>3</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="15"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>8</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="15"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="40">
+      <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="39"/>
-      <c r="G30" s="43" t="s">
+      <c r="F30"/>
+      <c r="G30" s="35" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A31" s="40">
+      <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>1</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="15" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="40">
+      <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="11">
         <v>1</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="14" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="40">
+      <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>2</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="15"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="40">
+      <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>2</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="26"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="40">
+      <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <v>3</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="26"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="40">
+      <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>3</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="26"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="40">
+      <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="11">
         <v>3</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="26"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="40">
+      <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>8</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="15"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="40">
+      <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <v>8</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="15"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="40">
+      <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>8</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="15" t="s">
+      <c r="F40" s="11"/>
+      <c r="G40" s="14" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="40">
+      <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <v>8</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="26" t="s">
+      <c r="F41" s="11"/>
+      <c r="G41" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="40">
+      <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="11">
         <v>16</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="11">
         <v>2</v>
       </c>
-      <c r="G42" s="26"/>
+      <c r="G42" s="22"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="40">
+      <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="11">
         <v>3</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="26"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="40">
+      <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="11">
         <v>8</v>
       </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="26"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="40">
+      <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="11">
         <v>2</v>
       </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="27"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="23"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="40">
+      <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <v>8</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="25"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="40">
+      <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="11">
         <v>8</v>
       </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="27"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="40">
+      <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="11">
         <v>8</v>
       </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="26"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="40">
+      <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E49" s="11">
         <v>8</v>
       </c>
-      <c r="F49" s="18"/>
-      <c r="G49" s="26"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="22"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="40">
+      <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="18">
+      <c r="E50" s="11">
         <v>16</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="11">
         <v>2</v>
       </c>
-      <c r="G50" s="26"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="40">
+      <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="11">
         <v>16</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="11">
         <v>2</v>
       </c>
-      <c r="G51" s="26"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="40">
+      <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="11">
         <v>16</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <v>2</v>
       </c>
-      <c r="G52" s="26"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="40">
+      <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="11">
         <v>1</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="25" t="s">
+      <c r="F53" s="11"/>
+      <c r="G53" s="21" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="40">
+      <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="11">
         <v>1</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="25" t="s">
+      <c r="F54" s="11"/>
+      <c r="G54" s="21" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">
-      <c r="A55" s="40">
+      <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <v>1</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="25" t="s">
+      <c r="F55" s="11"/>
+      <c r="G55" s="21" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="40">
+      <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E56" s="47">
+      <c r="E56" s="38">
         <v>1</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48" t="s">
+      <c r="F56" s="38"/>
+      <c r="G56" s="39" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="40">
+      <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="47">
+      <c r="E57" s="38">
         <v>16</v>
       </c>
-      <c r="F57" s="47">
+      <c r="F57" s="38">
         <v>2</v>
       </c>
-      <c r="G57" s="49"/>
+      <c r="G57" s="40"/>
     </row>
     <row r="58" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="40">
+      <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="11">
         <v>2</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="25" t="s">
+      <c r="F58" s="11"/>
+      <c r="G58" s="21" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="40">
+      <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="11">
         <v>6</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="25"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="21"/>
     </row>
     <row r="60" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="40">
+      <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="11">
         <v>2</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="38" t="s">
+      <c r="F60" s="11"/>
+      <c r="G60" s="33" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="40">
+      <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="11">
         <v>100</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="15"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="14"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="40">
+      <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="11">
         <v>10</v>
       </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="26"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="40">
+      <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="11">
         <v>8</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="26"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="22"/>
     </row>
     <row r="64" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="40">
+      <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <v>1</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="28" t="s">
+      <c r="F64" s="11"/>
+      <c r="G64" s="24" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="40">
+      <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="11">
         <v>1</v>
       </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="25" t="s">
+      <c r="F65" s="11"/>
+      <c r="G65" s="21" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="40">
+      <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
       </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="26" t="s">
+      <c r="F66" s="11"/>
+      <c r="G66" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="40">
+      <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D67" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E67" s="3">
         <v>4</v>
       </c>
-      <c r="F67" s="18"/>
-      <c r="G67" s="26"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="40">
+      <c r="A68" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E68" s="3">
         <v>6</v>
       </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="26"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="40">
+      <c r="A69" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E69" s="3">
         <v>8</v>
       </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="26"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="40">
+      <c r="A70" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E70" s="3">
         <v>3</v>
       </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="26" t="s">
+      <c r="F70" s="11"/>
+      <c r="G70" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="40">
+      <c r="A71" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E71" s="3">
         <v>4</v>
       </c>
-      <c r="F71" s="18"/>
-      <c r="G71" s="26"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="22"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="40">
+      <c r="A72" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="18" t="s">
         <v>110</v>
       </c>
       <c r="E72" s="3">
         <v>14</v>
       </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="26"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="22"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="40">
+      <c r="A73" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="18" t="s">
         <v>116</v>
       </c>
       <c r="E73" s="3">
         <v>60</v>
       </c>
-      <c r="F73" s="18"/>
-      <c r="G73" s="26"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="40">
+      <c r="A74" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="18" t="s">
         <v>114</v>
       </c>
       <c r="E74" s="3">
         <v>7</v>
       </c>
-      <c r="F74" s="18"/>
-      <c r="G74" s="26"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="40">
+      <c r="A75" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="18" t="s">
         <v>116</v>
       </c>
       <c r="E75" s="3">
         <v>40</v>
       </c>
-      <c r="F75" s="18"/>
-      <c r="G75" s="26"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="22"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="40">
+      <c r="A76" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="18" t="s">
         <v>128</v>
       </c>
       <c r="E76" s="3">
         <v>8</v>
       </c>
-      <c r="F76" s="18"/>
-      <c r="G76" s="26"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="40">
+      <c r="A77" s="3">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="11">
         <v>8</v>
       </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="26"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="22"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="40">
+      <c r="A78" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="11">
         <v>4</v>
       </c>
-      <c r="F78" s="18"/>
-      <c r="G78" s="26"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="22"/>
     </row>
     <row r="79" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="50">
+      <c r="A79" s="41">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="B79" s="51" t="s">
+      <c r="B79" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="C79" s="51" t="s">
+      <c r="C79" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="D79" s="52" t="s">
+      <c r="D79" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="E79" s="52">
+      <c r="E79" s="43">
         <v>1</v>
       </c>
-      <c r="F79" s="52"/>
-      <c r="G79" s="53" t="s">
+      <c r="F79" s="43"/>
+      <c r="G79" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="H79" s="54"/>
+      <c r="H79" s="45"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="40">
+      <c r="A80" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="15"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="14"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="40">
+      <c r="A81" s="3">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E81" s="12">
+      <c r="E81" s="11">
         <v>6</v>
       </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="15"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="14"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="40">
+      <c r="A82" s="3">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="15"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="14"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="40">
+      <c r="A83" s="3">
         <f t="shared" ref="A83" si="1">A82+1</f>
         <v>75</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="11">
         <v>6</v>
       </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="15"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="14"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B85" s="6"/>
+      <c r="B85" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3503,7 +3502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3520,13 +3519,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3626,11 +3625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3641,14 +3640,14 @@
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3659,7 +3658,7 @@
       <c r="B2" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="36" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3670,7 +3669,7 @@
       <c r="B3" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="36" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3692,7 +3691,7 @@
       <c r="B5" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="36" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3791,7 +3790,7 @@
       <c r="B14" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="36" t="s">
         <v>231</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCFBDA0-DBE9-41CD-AC57-42C5D726D4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064D032B-A7F2-40B6-B12D-DC760ED46CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,12 +925,6 @@
   </si>
   <si>
     <t>HandlingFee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常 
-1.展期撥款(不同額度)
-2.借新還舊撥款(同額度)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1061,6 +1055,12 @@
 2.到期取息(到期繳息還本)
 3.本息平均法(期金)
 4.本金平均法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常 
+1.展期撥款(不同額度),新系統使用
+2.借新還舊撥款(同額度)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1794,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="F30"/>
       <c r="G30" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2882,7 +2882,7 @@
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="21" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -3094,7 +3094,7 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3389,20 +3389,20 @@
         <v>71</v>
       </c>
       <c r="B79" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="43" t="s">
         <v>253</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>254</v>
       </c>
       <c r="E79" s="43">
         <v>1</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H79" s="45"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064D032B-A7F2-40B6-B12D-DC760ED46CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FFF3F5-9175-491F-B762-49E33E9D7555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1044,13 +1044,6 @@
   </si>
   <si>
     <t>共用代碼檔
-1:整批匯款
-2:單筆匯款
-3.預撥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
 1.按月繳息(按期繳息到期還本)
 2.到期取息(到期繳息還本)
 3.本息平均法(期金)
@@ -1061,6 +1054,39 @@
     <t>0:正常 
 1.展期撥款(不同額度),新系統使用
 2.借新還舊撥款(同額度)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">共用代碼檔
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1:整批匯款
+2:單筆匯款
+3.預撥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+1.核心匯款
+2.整批匯款
+3.單筆匯款</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1068,7 +1094,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1166,6 +1192,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1794,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2177,7 +2211,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2196,7 +2230,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2404,7 +2438,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2882,7 +2916,7 @@
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FFF3F5-9175-491F-B762-49E33E9D7555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FA9F51-4F4D-4B39-B9B4-D8944EA1252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,12 +1048,6 @@
 2.到期取息(到期繳息還本)
 3.本息平均法(期金)
 4.本金平均法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常 
-1.展期撥款(不同額度),新系統使用
-2.借新還舊撥款(同額度)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1087,6 +1081,12 @@
 2.整批匯款
 3.單筆匯款</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:正常 
+1.展期(撥款)
+2.借新還舊(撥款)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1828,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FA9F51-4F4D-4B39-B9B4-D8944EA1252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420EEC6A-5CAA-4EC1-AC45-70AE21DCC8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="261">
   <si>
     <t>備註說明</t>
   </si>
@@ -196,9 +196,6 @@
     <t>匯款帳號</t>
   </si>
   <si>
-    <t>附言</t>
-  </si>
-  <si>
     <t>撥款日期, 預約日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -710,10 +707,6 @@
   </si>
   <si>
     <t>匯款分行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>匯款戶名(代償專戶)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1089,12 +1082,27 @@
 2.借新還舊(撥款)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>刪除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代償專戶</t>
+  </si>
+  <si>
+    <t>更名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1203,6 +1211,14 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1331,7 +1347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1487,6 +1503,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1828,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1846,14 +1865,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="26"/>
@@ -1866,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="27"/>
       <c r="F2" s="28"/>
@@ -1874,14 +1893,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="1"/>
@@ -1889,14 +1908,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="47"/>
       <c r="C4" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="1"/>
@@ -1904,11 +1923,11 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="25"/>
@@ -1917,7 +1936,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="51"/>
       <c r="C6" s="5"/>
@@ -1928,7 +1947,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="5"/>
@@ -1965,13 +1984,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E9" s="11">
         <v>7</v>
@@ -1985,13 +2004,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E10" s="11">
         <v>3</v>
@@ -2005,13 +2024,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="11">
         <v>3</v>
@@ -2025,13 +2044,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="11">
         <v>4</v>
@@ -2045,13 +2064,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="11">
         <v>3</v>
@@ -2065,20 +2084,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="11">
         <v>2</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2087,13 +2106,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" s="11">
         <v>6</v>
@@ -2109,13 +2128,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="11">
         <v>6</v>
@@ -2131,13 +2150,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -2153,13 +2172,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" s="11">
         <v>6</v>
@@ -2175,20 +2194,20 @@
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2197,13 +2216,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" s="11">
         <v>2</v>
@@ -2217,20 +2236,20 @@
         <v>13</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2239,13 +2258,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22" s="11">
         <v>3</v>
@@ -2259,13 +2278,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="11">
         <v>16</v>
@@ -2281,13 +2300,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="11">
         <v>16</v>
@@ -2303,13 +2322,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E25" s="11">
         <v>8</v>
@@ -2323,13 +2342,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" s="11">
         <v>2</v>
@@ -2343,13 +2362,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" s="11">
         <v>2</v>
@@ -2363,13 +2382,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="11">
         <v>3</v>
@@ -2383,13 +2402,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="11">
         <v>8</v>
@@ -2403,20 +2422,20 @@
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2425,20 +2444,20 @@
         <v>23</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2447,20 +2466,20 @@
         <v>24</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32" s="11">
         <v>1</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2469,13 +2488,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" s="11">
         <v>2</v>
@@ -2489,13 +2508,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E34" s="11">
         <v>2</v>
@@ -2509,13 +2528,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" s="11">
         <v>3</v>
@@ -2529,13 +2548,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" s="11">
         <v>3</v>
@@ -2549,13 +2568,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>170</v>
-      </c>
       <c r="D37" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="11">
         <v>3</v>
@@ -2569,13 +2588,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="11">
         <v>8</v>
@@ -2589,13 +2608,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" s="11">
         <v>8</v>
@@ -2609,20 +2628,20 @@
         <v>32</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" s="11">
         <v>8</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2631,20 +2650,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41" s="11">
         <v>8</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2653,13 +2672,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" s="11">
         <v>16</v>
@@ -2675,13 +2694,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" s="11">
         <v>3</v>
@@ -2695,13 +2714,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" s="11">
         <v>8</v>
@@ -2715,13 +2734,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E45" s="11">
         <v>2</v>
@@ -2735,13 +2754,13 @@
         <v>38</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E46" s="11">
         <v>8</v>
@@ -2755,13 +2774,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E47" s="11">
         <v>8</v>
@@ -2775,13 +2794,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E48" s="11">
         <v>8</v>
@@ -2795,13 +2814,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49" s="11">
         <v>8</v>
@@ -2815,13 +2834,13 @@
         <v>42</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E50" s="11">
         <v>16</v>
@@ -2837,13 +2856,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E51" s="11">
         <v>16</v>
@@ -2859,13 +2878,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E52" s="11">
         <v>16</v>
@@ -2881,20 +2900,20 @@
         <v>45</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="11">
         <v>1</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2903,20 +2922,20 @@
         <v>46</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E54" s="11">
         <v>1</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -2925,20 +2944,20 @@
         <v>47</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E55" s="11">
         <v>1</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2947,20 +2966,20 @@
         <v>48</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E56" s="38">
         <v>1</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="39" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2969,13 +2988,13 @@
         <v>49</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D57" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E57" s="38">
         <v>16</v>
@@ -2991,20 +3010,20 @@
         <v>50</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" s="11">
         <v>2</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="21" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3013,13 +3032,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" s="11">
         <v>6</v>
@@ -3033,20 +3052,20 @@
         <v>52</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" s="11">
         <v>2</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -3055,13 +3074,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E61" s="11">
         <v>100</v>
@@ -3075,13 +3094,13 @@
         <v>54</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" s="11">
         <v>10</v>
@@ -3095,13 +3114,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E63" s="11">
         <v>8</v>
@@ -3115,20 +3134,20 @@
         <v>56</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E64" s="11">
         <v>1</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -3137,20 +3156,20 @@
         <v>57</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E65" s="11">
         <v>1</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3159,13 +3178,13 @@
         <v>58</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
@@ -3181,13 +3200,13 @@
         <v>59</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E67" s="3">
         <v>4</v>
@@ -3201,13 +3220,13 @@
         <v>60</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E68" s="3">
         <v>6</v>
@@ -3221,13 +3240,13 @@
         <v>61</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E69" s="3">
         <v>8</v>
@@ -3241,13 +3260,13 @@
         <v>62</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E70" s="3">
         <v>3</v>
@@ -3256,6 +3275,9 @@
       <c r="G70" s="22" t="s">
         <v>50</v>
       </c>
+      <c r="H70" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
@@ -3263,19 +3285,22 @@
         <v>63</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" s="3">
         <v>4</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="22"/>
+      <c r="H71" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
@@ -3283,19 +3308,22 @@
         <v>64</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>52</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E72" s="3">
         <v>14</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="22"/>
+      <c r="H72" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
@@ -3303,19 +3331,22 @@
         <v>65</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>185</v>
+        <v>99</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>259</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E73" s="3">
         <v>60</v>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="22"/>
+      <c r="H73" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
@@ -3323,19 +3354,22 @@
         <v>66</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D74" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E74" s="3">
         <v>7</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="22"/>
+      <c r="H74" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
@@ -3343,19 +3377,22 @@
         <v>67</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>258</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E75" s="3">
         <v>40</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="22"/>
+      <c r="H75" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
@@ -3363,13 +3400,13 @@
         <v>68</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E76" s="3">
         <v>8</v>
@@ -3383,13 +3420,13 @@
         <v>69</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E77" s="11">
         <v>8</v>
@@ -3403,13 +3440,13 @@
         <v>70</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E78" s="11">
         <v>4</v>
@@ -3423,20 +3460,20 @@
         <v>71</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E79" s="43">
         <v>1</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="44" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H79" s="45"/>
     </row>
@@ -3446,13 +3483,13 @@
         <v>72</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
@@ -3464,13 +3501,13 @@
         <v>73</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" s="11">
         <v>6</v>
@@ -3484,13 +3521,13 @@
         <v>74</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -3502,13 +3539,13 @@
         <v>75</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E83" s="11">
         <v>6</v>
@@ -3554,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -3565,90 +3602,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3676,13 +3713,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" t="s">
         <v>216</v>
-      </c>
-      <c r="B1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3690,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3701,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,10 +3749,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3723,10 +3760,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3734,10 +3771,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3745,10 +3782,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3756,10 +3793,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3767,10 +3804,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3778,10 +3815,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3789,10 +3826,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3800,10 +3837,10 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3811,10 +3848,10 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
@@ -3822,10 +3859,10 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420EEC6A-5CAA-4EC1-AC45-70AE21DCC8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753FFDE-D1F4-43AA-9D24-2F387230A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1486,6 +1486,9 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1503,9 +1506,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1525,9 +1525,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1565,9 +1565,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1600,26 +1600,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1652,26 +1635,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1847,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1864,10 +1830,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="50"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="10" t="s">
         <v>126</v>
       </c>
@@ -1879,8 +1845,8 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1892,10 +1858,10 @@
       <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="48"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="6" t="s">
         <v>147</v>
       </c>
@@ -1907,10 +1873,10 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="6" t="s">
         <v>125</v>
       </c>
@@ -1922,10 +1888,10 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>182</v>
       </c>
@@ -1935,10 +1901,10 @@
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="5"/>
       <c r="D6" s="32"/>
       <c r="E6" s="29"/>
@@ -1946,10 +1912,10 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="5"/>
       <c r="D7" s="32"/>
       <c r="E7" s="30"/>
@@ -3333,7 +3299,7 @@
       <c r="B73" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="46" t="s">
         <v>259</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -3379,14 +3345,14 @@
       <c r="B75" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="52" t="s">
+      <c r="C75" s="46" t="s">
         <v>258</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>115</v>
       </c>
       <c r="E75" s="3">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="22"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9753FFDE-D1F4-43AA-9D24-2F387230A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="Status" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -918,22 +917,6 @@
   </si>
   <si>
     <t>HandlingFee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:正常戶
-1:展期
-2:催收戶
-3:結案戶
-4:逾期戶(顯示用)
-5:催收結案戶
-6:呆帳戶
-7:部分轉呆戶
-8:債權轉讓戶
-9:呆帳結案戶
-97:預約撥款已刪除
-98:預約已撥款
-99:預約撥款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1097,11 +1080,24 @@
     <t>更名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>0:正常戶
+1:展期
+2:催收戶
+3:結案戶
+4:逾期戶(顯示用)
+5:催收結案戶
+6:呆帳戶
+7:部分轉呆戶
+8:債權轉讓戶
+9:呆帳結案戶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1525,9 +1521,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1565,9 +1561,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1602,7 +1598,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1637,7 +1633,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1810,11 +1806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2044,7 +2040,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:7" ht="210.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="162" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2063,7 +2059,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="14" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2173,7 +2169,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2215,7 +2211,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2401,7 +2397,7 @@
       </c>
       <c r="F30"/>
       <c r="G30" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2423,7 +2419,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2445,7 +2441,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2879,7 +2875,7 @@
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2901,7 +2897,7 @@
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -2923,7 +2919,7 @@
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2989,7 +2985,7 @@
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3031,7 +3027,7 @@
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -3113,7 +3109,7 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -3135,7 +3131,7 @@
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3242,7 +3238,7 @@
         <v>50</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3265,7 +3261,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="22"/>
       <c r="H71" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3288,7 +3284,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="22"/>
       <c r="H72" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -3300,7 +3296,7 @@
         <v>99</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>115</v>
@@ -3311,7 +3307,7 @@
       <c r="F73" s="11"/>
       <c r="G73" s="22"/>
       <c r="H73" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -3334,7 +3330,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="22"/>
       <c r="H74" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3346,7 +3342,7 @@
         <v>100</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>115</v>
@@ -3357,7 +3353,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="22"/>
       <c r="H75" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3426,20 +3422,20 @@
         <v>71</v>
       </c>
       <c r="B79" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="43" t="s">
         <v>250</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>253</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>251</v>
       </c>
       <c r="E79" s="43">
         <v>1</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H79" s="45"/>
     </row>
@@ -3539,7 +3535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -3662,7 +3658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1CFCA3-793A-4767-9A8E-1C81991E17CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="Status" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -726,10 +727,6 @@
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND BormNo &gt;= ,AND BormNo &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status ^i ,AND CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1093,11 +1090,15 @@
 9:呆帳結案戶</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Status ^i ,AND CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1521,9 +1522,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1561,9 +1562,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1598,7 +1599,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1633,7 +1634,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1806,10 +1807,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
@@ -2059,7 +2060,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2169,7 +2170,7 @@
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2211,7 +2212,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2384,10 +2385,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="34" t="s">
         <v>193</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>194</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>113</v>
@@ -2397,7 +2398,7 @@
       </c>
       <c r="F30"/>
       <c r="G30" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2419,7 +2420,7 @@
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2441,7 +2442,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2603,7 +2604,7 @@
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2625,7 +2626,7 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2818,10 +2819,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>109</v>
@@ -2875,7 +2876,7 @@
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2887,7 +2888,7 @@
         <v>121</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>113</v>
@@ -2897,7 +2898,7 @@
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -2906,7 +2907,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>37</v>
@@ -2919,7 +2920,7 @@
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2928,10 +2929,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D56" s="38" t="s">
         <v>114</v>
@@ -2941,7 +2942,7 @@
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2950,10 +2951,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D57" s="38" t="s">
         <v>109</v>
@@ -2975,7 +2976,7 @@
         <v>94</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>113</v>
@@ -2985,7 +2986,7 @@
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3027,7 +3028,7 @@
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -3109,7 +3110,7 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -3121,7 +3122,7 @@
         <v>122</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>109</v>
@@ -3131,7 +3132,7 @@
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3238,7 +3239,7 @@
         <v>50</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3261,7 +3262,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="22"/>
       <c r="H71" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3284,7 +3285,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="22"/>
       <c r="H72" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -3296,7 +3297,7 @@
         <v>99</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>115</v>
@@ -3307,7 +3308,7 @@
       <c r="F73" s="11"/>
       <c r="G73" s="22"/>
       <c r="H73" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -3330,7 +3331,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="22"/>
       <c r="H74" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3342,7 +3343,7 @@
         <v>100</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>115</v>
@@ -3353,7 +3354,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="22"/>
       <c r="H75" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3402,10 +3403,10 @@
         <v>70</v>
       </c>
       <c r="B78" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>192</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>114</v>
@@ -3422,20 +3423,20 @@
         <v>71</v>
       </c>
       <c r="B79" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="43" t="s">
         <v>249</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>252</v>
-      </c>
-      <c r="D79" s="43" t="s">
-        <v>250</v>
       </c>
       <c r="E79" s="43">
         <v>1</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H79" s="45"/>
     </row>
@@ -3535,12 +3536,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3633,21 +3634,21 @@
         <v>187</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3675,13 +3676,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
         <v>214</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>215</v>
-      </c>
-      <c r="C1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3689,10 +3690,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3700,10 +3701,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3711,10 +3712,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3722,10 +3723,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3733,10 +3734,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3744,10 +3745,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3755,10 +3756,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3766,10 +3767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3777,10 +3778,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3788,10 +3789,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3799,10 +3800,10 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3810,10 +3811,10 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
@@ -3821,10 +3822,10 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanBorMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1CFCA3-793A-4767-9A8E-1C81991E17CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6530E7EC-77AF-42A8-A70E-3386D80715AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="260">
   <si>
     <t>備註說明</t>
   </si>
@@ -419,14 +419,6 @@
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1093,6 +1085,9 @@
   <si>
     <t>Status ^i ,AND CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;=</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1810,8 +1805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:I16"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1832,10 +1827,10 @@
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="26"/>
@@ -1860,7 +1855,7 @@
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>62</v>
@@ -1875,7 +1870,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>103</v>
@@ -1890,7 +1885,7 @@
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="25"/>
@@ -1950,7 +1945,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>110</v>
@@ -1970,7 +1965,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>109</v>
@@ -1990,7 +1985,7 @@
         <v>71</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>109</v>
@@ -2007,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>106</v>
@@ -2027,7 +2022,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>107</v>
@@ -2047,7 +2042,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>54</v>
@@ -2060,7 +2055,7 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2091,7 +2086,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>64</v>
@@ -2163,14 +2158,14 @@
         <v>16</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -2205,14 +2200,14 @@
         <v>22</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2227,7 +2222,7 @@
         <v>23</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E22" s="11">
         <v>3</v>
@@ -2263,7 +2258,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>25</v>
@@ -2285,13 +2280,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E25" s="11">
         <v>8</v>
@@ -2371,7 +2366,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E29" s="11">
         <v>8</v>
@@ -2385,20 +2380,20 @@
         <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
       <c r="F30"/>
       <c r="G30" s="35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2413,14 +2408,14 @@
         <v>12</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E31" s="11">
         <v>1</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2442,7 +2437,7 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2491,7 +2486,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>27</v>
@@ -2511,10 +2506,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>109</v>
@@ -2531,10 +2526,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>109</v>
@@ -2551,13 +2546,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E38" s="11">
         <v>8</v>
@@ -2571,13 +2566,13 @@
         <v>31</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E39" s="11">
         <v>8</v>
@@ -2591,20 +2586,20 @@
         <v>32</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>34</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E40" s="11">
         <v>8</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2613,20 +2608,20 @@
         <v>33</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E41" s="11">
         <v>8</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2635,7 +2630,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>44</v>
@@ -2683,7 +2678,7 @@
         <v>29</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E44" s="11">
         <v>8</v>
@@ -2723,7 +2718,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E46" s="11">
         <v>8</v>
@@ -2743,7 +2738,7 @@
         <v>31</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E47" s="11">
         <v>8</v>
@@ -2760,10 +2755,10 @@
         <v>92</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E48" s="11">
         <v>8</v>
@@ -2777,13 +2772,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>163</v>
-      </c>
       <c r="D49" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E49" s="11">
         <v>8</v>
@@ -2819,10 +2814,10 @@
         <v>43</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>109</v>
@@ -2841,10 +2836,10 @@
         <v>44</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>109</v>
@@ -2863,20 +2858,20 @@
         <v>45</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E53" s="11">
         <v>1</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2885,20 +2880,20 @@
         <v>46</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E54" s="11">
         <v>1</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="243" x14ac:dyDescent="0.3">
@@ -2907,20 +2902,20 @@
         <v>47</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E55" s="11">
         <v>1</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2929,20 +2924,20 @@
         <v>48</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D56" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E56" s="38">
         <v>1</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2951,10 +2946,10 @@
         <v>49</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D57" s="38" t="s">
         <v>109</v>
@@ -2976,17 +2971,17 @@
         <v>94</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E58" s="11">
         <v>2</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2995,7 +2990,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>41</v>
@@ -3015,20 +3010,20 @@
         <v>52</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E60" s="11">
         <v>2</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -3037,13 +3032,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E61" s="11">
         <v>100</v>
@@ -3057,13 +3052,13 @@
         <v>54</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E62" s="11">
         <v>10</v>
@@ -3077,13 +3072,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E63" s="11">
         <v>8</v>
@@ -3097,20 +3092,20 @@
         <v>56</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E64" s="11">
         <v>1</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -3119,10 +3114,10 @@
         <v>57</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>109</v>
@@ -3132,7 +3127,7 @@
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3141,13 +3136,13 @@
         <v>58</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>45</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E66" s="3">
         <v>8</v>
@@ -3169,7 +3164,7 @@
         <v>46</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E67" s="3">
         <v>4</v>
@@ -3183,13 +3178,13 @@
         <v>60</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E68" s="3">
         <v>6</v>
@@ -3203,13 +3198,13 @@
         <v>61</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E69" s="3">
         <v>8</v>
@@ -3229,7 +3224,7 @@
         <v>51</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E70" s="3">
         <v>3</v>
@@ -3239,7 +3234,7 @@
         <v>50</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3251,10 +3246,10 @@
         <v>97</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E71" s="3">
         <v>4</v>
@@ -3262,7 +3257,7 @@
       <c r="F71" s="11"/>
       <c r="G71" s="22"/>
       <c r="H71" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3285,7 +3280,7 @@
       <c r="F72" s="11"/>
       <c r="G72" s="22"/>
       <c r="H72" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -3297,10 +3292,10 @@
         <v>99</v>
       </c>
       <c r="C73" s="46" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E73" s="3">
         <v>60</v>
@@ -3308,7 +3303,7 @@
       <c r="F73" s="11"/>
       <c r="G73" s="22"/>
       <c r="H73" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -3317,13 +3312,13 @@
         <v>66</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E74" s="3">
         <v>7</v>
@@ -3331,7 +3326,7 @@
       <c r="F74" s="11"/>
       <c r="G74" s="22"/>
       <c r="H74" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -3343,10 +3338,10 @@
         <v>100</v>
       </c>
       <c r="C75" s="46" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E75" s="3">
         <v>200</v>
@@ -3354,7 +3349,7 @@
       <c r="F75" s="11"/>
       <c r="G75" s="22"/>
       <c r="H75" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3363,13 +3358,13 @@
         <v>68</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>101</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E76" s="3">
         <v>8</v>
@@ -3383,13 +3378,13 @@
         <v>69</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>102</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E77" s="11">
         <v>8</v>
@@ -3403,13 +3398,13 @@
         <v>70</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E78" s="11">
         <v>4</v>
@@ -3423,20 +3418,20 @@
         <v>71</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D79" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E79" s="43">
         <v>1</v>
       </c>
       <c r="F79" s="43"/>
       <c r="G79" s="44" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H79" s="45"/>
     </row>
@@ -3452,7 +3447,7 @@
         <v>65</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
@@ -3470,7 +3465,7 @@
         <v>20</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E81" s="11">
         <v>6</v>
@@ -3490,7 +3485,7 @@
         <v>10</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -3508,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E83" s="11">
         <v>6</v>
@@ -3539,7 +3534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -3565,90 +3560,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3676,13 +3671,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
         <v>213</v>
-      </c>
-      <c r="B1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3690,10 +3685,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4" x14ac:dyDescent="0.3">
@@ -3701,10 +3696,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3712,10 +3707,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3723,10 +3718,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3734,10 +3729,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3745,10 +3740,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3756,10 +3751,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3767,10 +3762,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3778,10 +3773,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3789,10 +3784,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3800,10 +3795,10 @@
         <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -3811,10 +3806,10 @@
         <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="48.6" x14ac:dyDescent="0.3">
@@ -3822,10 +3817,10 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
